--- a/tests/android/billing/Payment_Form_Validation_Test.xlsx
+++ b/tests/android/billing/Payment_Form_Validation_Test.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -136,8 +136,20 @@
       <b val="1"/>
       <color rgb="00FFFFFF"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00006100"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="21">
     <fill>
       <patternFill/>
     </fill>
@@ -246,8 +258,20 @@
         <bgColor rgb="00FFFFE0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004472C4"/>
+        <bgColor rgb="004472C4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C6EFCE"/>
+        <bgColor rgb="00C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -462,11 +486,25 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -638,6 +676,27 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1033,11 +1092,6 @@
           <t>TEST INFORMATION</t>
         </is>
       </c>
-      <c r="B3" s="54" t="n"/>
-      <c r="C3" s="54" t="n"/>
-      <c r="D3" s="54" t="n"/>
-      <c r="E3" s="54" t="n"/>
-      <c r="F3" s="55" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="44" t="inlineStr">
@@ -1050,10 +1104,6 @@
           <t>Payment_Form_Validation_Test</t>
         </is>
       </c>
-      <c r="C4" s="54" t="n"/>
-      <c r="D4" s="54" t="n"/>
-      <c r="E4" s="54" t="n"/>
-      <c r="F4" s="55" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="44" t="inlineStr">
@@ -1066,10 +1116,6 @@
           <t>ANDROID</t>
         </is>
       </c>
-      <c r="C5" s="54" t="n"/>
-      <c r="D5" s="54" t="n"/>
-      <c r="E5" s="54" t="n"/>
-      <c r="F5" s="55" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="44" t="inlineStr">
@@ -1079,13 +1125,9 @@
       </c>
       <c r="B6" s="45" t="inlineStr">
         <is>
-          <t>2025-10-05</t>
-        </is>
-      </c>
-      <c r="C6" s="54" t="n"/>
-      <c r="D6" s="54" t="n"/>
-      <c r="E6" s="54" t="n"/>
-      <c r="F6" s="55" t="n"/>
+          <t>2025-10-08</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="44" t="inlineStr">
@@ -1095,13 +1137,9 @@
       </c>
       <c r="B7" s="45" t="inlineStr">
         <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="C7" s="54" t="n"/>
-      <c r="D7" s="54" t="n"/>
-      <c r="E7" s="54" t="n"/>
-      <c r="F7" s="55" t="n"/>
+          <t>109</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="44" t="inlineStr">
@@ -1114,10 +1152,6 @@
           <t>TestZen Automation Framework</t>
         </is>
       </c>
-      <c r="C8" s="54" t="n"/>
-      <c r="D8" s="54" t="n"/>
-      <c r="E8" s="54" t="n"/>
-      <c r="F8" s="55" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="44" t="inlineStr">
@@ -1130,10 +1164,6 @@
           <t>End-to-End Automated Test</t>
         </is>
       </c>
-      <c r="C9" s="54" t="n"/>
-      <c r="D9" s="54" t="n"/>
-      <c r="E9" s="54" t="n"/>
-      <c r="F9" s="55" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="44" t="inlineStr">
@@ -1146,10 +1176,6 @@
           <t>Test Environment</t>
         </is>
       </c>
-      <c r="C10" s="54" t="n"/>
-      <c r="D10" s="54" t="n"/>
-      <c r="E10" s="54" t="n"/>
-      <c r="F10" s="55" t="n"/>
     </row>
     <row r="12" ht="20" customHeight="1" s="19">
       <c r="A12" s="43" t="inlineStr">
@@ -1157,11 +1183,6 @@
           <t>EXECUTION RESULTS</t>
         </is>
       </c>
-      <c r="B12" s="54" t="n"/>
-      <c r="C12" s="54" t="n"/>
-      <c r="D12" s="54" t="n"/>
-      <c r="E12" s="54" t="n"/>
-      <c r="F12" s="55" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="46" t="inlineStr">
@@ -1215,12 +1236,12 @@
       </c>
       <c r="B15" s="49" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C15" s="49" t="inlineStr">
         <is>
-          <t>23.8%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="D15" s="49" t="inlineStr"/>
@@ -1232,76 +1253,58 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="66" t="inlineStr">
+      <c r="A16" s="45" t="inlineStr">
         <is>
           <t>Failed Steps</t>
         </is>
       </c>
-      <c r="B16" s="67" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C16" s="67" t="inlineStr">
-        <is>
-          <t>4.8%</t>
-        </is>
-      </c>
-      <c r="D16" s="67" t="inlineStr"/>
-      <c r="E16" s="67" t="inlineStr"/>
-      <c r="F16" s="67" t="inlineStr">
-        <is>
-          <t>[FAIL] FAILED</t>
-        </is>
-      </c>
+      <c r="B16" s="50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" s="50" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="D16" s="50" t="inlineStr"/>
+      <c r="E16" s="50" t="inlineStr"/>
+      <c r="F16" s="50" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="68" t="inlineStr">
+      <c r="A17" s="45" t="inlineStr">
         <is>
           <t>Unexecuted Steps</t>
         </is>
       </c>
-      <c r="B17" s="69" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="C17" s="69" t="inlineStr">
-        <is>
-          <t>71.4%</t>
-        </is>
-      </c>
-      <c r="D17" s="69" t="inlineStr"/>
-      <c r="E17" s="69" t="inlineStr"/>
-      <c r="F17" s="69" t="inlineStr">
-        <is>
-          <t>[PEND] PENDING</t>
-        </is>
-      </c>
+      <c r="B17" s="50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C17" s="50" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="D17" s="50" t="inlineStr"/>
+      <c r="E17" s="50" t="inlineStr"/>
+      <c r="F17" s="50" t="inlineStr"/>
     </row>
     <row r="19" ht="25" customHeight="1" s="19">
-      <c r="A19" s="70" t="inlineStr">
-        <is>
-          <t>OVERALL TEST STATUS: FAILED</t>
-        </is>
-      </c>
-      <c r="B19" s="54" t="n"/>
-      <c r="C19" s="54" t="n"/>
-      <c r="D19" s="54" t="n"/>
-      <c r="E19" s="54" t="n"/>
-      <c r="F19" s="55" t="n"/>
+      <c r="A19" s="51" t="inlineStr">
+        <is>
+          <t>OVERALL TEST STATUS: PASSED</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="20" customHeight="1" s="19">
       <c r="A21" s="52" t="inlineStr">
         <is>
-          <t>SUCCESS RATE: 83.3%</t>
-        </is>
-      </c>
-      <c r="B21" s="54" t="n"/>
-      <c r="C21" s="54" t="n"/>
-      <c r="D21" s="54" t="n"/>
-      <c r="E21" s="54" t="n"/>
-      <c r="F21" s="55" t="n"/>
+          <t>SUCCESS RATE: 100.0%</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="20" customHeight="1" s="19">
       <c r="A23" s="43" t="inlineStr">
@@ -1309,11 +1312,6 @@
           <t>ADDITIONAL NOTES</t>
         </is>
       </c>
-      <c r="B23" s="54" t="n"/>
-      <c r="C23" s="54" t="n"/>
-      <c r="D23" s="54" t="n"/>
-      <c r="E23" s="54" t="n"/>
-      <c r="F23" s="55" t="n"/>
     </row>
     <row r="24" ht="60" customHeight="1" s="19">
       <c r="A24" s="53" t="inlineStr">
@@ -1321,24 +1319,9 @@
           <t>Test executed with screenshots enabled. Skip on fail: disabled.</t>
         </is>
       </c>
-      <c r="B24" s="56" t="n"/>
-      <c r="C24" s="56" t="n"/>
-      <c r="D24" s="56" t="n"/>
-      <c r="E24" s="56" t="n"/>
-      <c r="F24" s="57" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="58" t="n"/>
-      <c r="F25" s="59" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="60" t="n"/>
-      <c r="B26" s="61" t="n"/>
-      <c r="C26" s="61" t="n"/>
-      <c r="D26" s="61" t="n"/>
-      <c r="E26" s="61" t="n"/>
-      <c r="F26" s="62" t="n"/>
-    </row>
+    </row>
+    <row r="25"/>
+    <row r="26"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="B4:F4"/>
@@ -1366,854 +1349,926 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H4"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="8" customWidth="1" style="19" min="1" max="1"/>
     <col width="50" customWidth="1" style="19" min="2" max="2"/>
-    <col width="15" customWidth="1" style="19" min="3" max="4"/>
-    <col width="80" customWidth="1" style="19" min="5" max="5"/>
-    <col width="20" customWidth="1" style="19" min="6" max="6"/>
-    <col width="12" customWidth="1" style="19" min="7" max="7"/>
-    <col width="25" customWidth="1" style="19" min="8" max="8"/>
+    <col width="12" customWidth="1" style="19" min="3" max="3"/>
+    <col width="15" customWidth="1" style="19" min="4" max="4"/>
+    <col width="60" customWidth="1" style="19" min="5" max="5"/>
+    <col width="60" customWidth="1" style="19" min="6" max="6"/>
+    <col width="60" customWidth="1" style="19" min="7" max="7"/>
+    <col width="20" customWidth="1" style="19" min="8" max="8"/>
+    <col width="12" customWidth="1" style="19" min="9" max="9"/>
+    <col width="40" customWidth="1" style="19" min="10" max="10"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" s="19">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="30" customHeight="1" s="19">
+      <c r="A1" s="73" t="inlineStr">
         <is>
           <t>S.No</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="73" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="73" t="inlineStr">
         <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="73" t="inlineStr">
         <is>
           <t>Locator Type</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="73" t="inlineStr">
         <is>
           <t>Locator Value</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="73" t="inlineStr">
+        <is>
+          <t>Locator Value 2</t>
+        </is>
+      </c>
+      <c r="G1" s="73" t="inlineStr">
+        <is>
+          <t>Locator Value 3</t>
+        </is>
+      </c>
+      <c r="H1" s="73" t="inlineStr">
         <is>
           <t>Input Data</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="73" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="73" t="inlineStr">
         <is>
           <t>Result Message</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="25" customHeight="1" s="19">
-      <c r="A2" s="2" t="n">
+    <row r="2" ht="40" customHeight="1" s="19">
+      <c r="A2" s="74" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="74" t="inlineStr">
         <is>
           <t>Enter user name</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="74" t="inlineStr">
         <is>
           <t>input</t>
         </is>
       </c>
-      <c r="D2" s="6" t="inlineStr">
+      <c r="D2" s="74" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="E2" s="6" t="inlineStr">
+      <c r="E2" s="74" t="inlineStr">
+        <is>
+          <t>//android.widget.EditText[@hint="Username"]</t>
+        </is>
+      </c>
+      <c r="F2" s="74" t="inlineStr">
         <is>
           <t>//android.widget.EditText[@resource-id="username"]</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="74" t="inlineStr">
+        <is>
+          <t>//android.widget.EditText[1]</t>
+        </is>
+      </c>
+      <c r="H2" s="74" t="inlineStr">
         <is>
           <t>user1</t>
         </is>
       </c>
-      <c r="G2" s="40" t="inlineStr">
+      <c r="I2" s="77" t="inlineStr">
         <is>
           <t>PASSED</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="74" t="inlineStr">
         <is>
           <t>Successfully entered text: 'user1'</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="25" customHeight="1" s="19">
-      <c r="A3" s="25" t="n">
+    <row r="3" ht="40" customHeight="1" s="19">
+      <c r="A3" s="74" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="26" t="inlineStr">
+      <c r="B3" s="74" t="inlineStr">
         <is>
           <t>Enter password</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="74" t="inlineStr">
         <is>
           <t>input</t>
         </is>
       </c>
-      <c r="D3" s="6" t="inlineStr">
+      <c r="D3" s="74" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="E3" s="28" t="inlineStr">
+      <c r="E3" s="74" t="inlineStr">
+        <is>
+          <t>//android.widget.EditText[@hint="Password"]</t>
+        </is>
+      </c>
+      <c r="F3" s="74" t="inlineStr">
         <is>
           <t>//android.widget.EditText[@resource-id="password"]</t>
         </is>
       </c>
-      <c r="F3" s="26" t="inlineStr">
+      <c r="G3" s="74" t="inlineStr">
+        <is>
+          <t>//android.widget.EditText[2]</t>
+        </is>
+      </c>
+      <c r="H3" s="74" t="inlineStr">
         <is>
           <t>test123</t>
         </is>
       </c>
-      <c r="G3" s="41" t="inlineStr">
+      <c r="I3" s="77" t="inlineStr">
         <is>
           <t>PASSED</t>
         </is>
       </c>
-      <c r="H3" s="26" t="inlineStr">
+      <c r="J3" s="74" t="inlineStr">
         <is>
           <t>Successfully entered text: 'test123'</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="25" customHeight="1" s="19">
-      <c r="A4" s="25" t="n">
+    <row r="4" ht="40" customHeight="1" s="19">
+      <c r="A4" s="74" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="26" t="inlineStr">
+      <c r="B4" s="74" t="inlineStr">
         <is>
           <t>Click on Log In</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="74" t="inlineStr">
         <is>
           <t>click</t>
         </is>
       </c>
-      <c r="D4" s="6" t="inlineStr">
+      <c r="D4" s="74" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="E4" s="28" t="inlineStr">
+      <c r="E4" s="74" t="inlineStr">
         <is>
           <t>//*[@text='Login button']</t>
         </is>
       </c>
-      <c r="F4" s="26" t="n"/>
-      <c r="G4" s="41" t="inlineStr">
+      <c r="F4" s="74" t="inlineStr"/>
+      <c r="G4" s="74" t="inlineStr"/>
+      <c r="H4" s="74" t="inlineStr"/>
+      <c r="I4" s="77" t="inlineStr">
         <is>
           <t>PASSED</t>
         </is>
       </c>
-      <c r="H4" s="26" t="inlineStr">
+      <c r="J4" s="74" t="inlineStr">
         <is>
           <t>Successfully clicked element</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="25" customHeight="1" s="19">
-      <c r="A5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
+    <row r="5" ht="40" customHeight="1" s="19">
+      <c r="A5" s="74" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="74" t="inlineStr">
         <is>
           <t>Click on Billing section</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C5" s="74" t="inlineStr">
         <is>
           <t>click</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
+      <c r="D5" s="74" t="inlineStr">
         <is>
           <t>content-desc</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="E5" s="74" t="inlineStr">
         <is>
           <t>Billing</t>
         </is>
       </c>
-      <c r="F5" s="3" t="n"/>
-      <c r="G5" s="40" t="inlineStr">
+      <c r="F5" s="74" t="inlineStr"/>
+      <c r="G5" s="74" t="inlineStr"/>
+      <c r="H5" s="74" t="inlineStr"/>
+      <c r="I5" s="77" t="inlineStr">
         <is>
           <t>PASSED</t>
         </is>
       </c>
-      <c r="H5" s="3" t="inlineStr">
+      <c r="J5" s="74" t="inlineStr">
         <is>
           <t>Successfully clicked element</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="25" customHeight="1" s="19">
-      <c r="A6" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
+    <row r="6" ht="40" customHeight="1" s="19">
+      <c r="A6" s="74" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="74" t="inlineStr">
         <is>
           <t>Click on Insurance Premium bill (first bill)</t>
         </is>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C6" s="74" t="inlineStr">
         <is>
           <t>click</t>
         </is>
       </c>
-      <c r="D6" s="3" t="inlineStr">
+      <c r="D6" s="74" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="E6" s="74" t="inlineStr">
         <is>
           <t>//android.widget.TextView[@text='Insurance Premium']</t>
         </is>
       </c>
-      <c r="F6" s="3" t="n"/>
-      <c r="G6" s="40" t="inlineStr">
+      <c r="F6" s="74" t="inlineStr"/>
+      <c r="G6" s="74" t="inlineStr"/>
+      <c r="H6" s="74" t="inlineStr"/>
+      <c r="I6" s="77" t="inlineStr">
         <is>
           <t>PASSED</t>
         </is>
       </c>
-      <c r="H6" s="3" t="inlineStr">
+      <c r="J6" s="74" t="inlineStr">
         <is>
           <t>Successfully clicked element</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="25" customHeight="1" s="19">
-      <c r="A7" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="inlineStr">
+    <row r="7" ht="40" customHeight="1" s="19">
+      <c r="A7" s="74" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="74" t="inlineStr">
         <is>
           <t>Click Pay Now button</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="74" t="inlineStr">
         <is>
           <t>click</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D7" s="74" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="E7" s="74" t="inlineStr">
         <is>
           <t>//*[@text='Pay Now']</t>
         </is>
       </c>
-      <c r="F7" s="3" t="n"/>
-      <c r="G7" s="40" t="inlineStr">
+      <c r="F7" s="74" t="inlineStr"/>
+      <c r="G7" s="74" t="inlineStr"/>
+      <c r="H7" s="74" t="inlineStr"/>
+      <c r="I7" s="77" t="inlineStr">
         <is>
           <t>PASSED</t>
         </is>
       </c>
-      <c r="H7" s="3" t="inlineStr">
+      <c r="J7" s="74" t="inlineStr">
         <is>
           <t>Successfully clicked element</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="25" customHeight="1" s="19">
-      <c r="A8" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="inlineStr">
+    <row r="8" ht="40" customHeight="1" s="19">
+      <c r="A8" s="74" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="74" t="inlineStr">
         <is>
           <t>Click Submit Payment without entering any details</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" s="74" t="inlineStr">
         <is>
           <t>click</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="D8" s="74" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="E8" s="74" t="inlineStr">
         <is>
           <t>//*[@text='Submit Payment']</t>
         </is>
       </c>
-      <c r="F8" s="3" t="n"/>
-      <c r="G8" s="40" t="inlineStr">
+      <c r="F8" s="74" t="inlineStr"/>
+      <c r="G8" s="74" t="inlineStr"/>
+      <c r="H8" s="74" t="inlineStr"/>
+      <c r="I8" s="77" t="inlineStr">
         <is>
           <t>PASSED</t>
         </is>
       </c>
-      <c r="H8" s="3" t="inlineStr">
+      <c r="J8" s="74" t="inlineStr">
         <is>
           <t>Successfully clicked element</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="25" customHeight="1" s="19">
-      <c r="A9" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
+    <row r="9" ht="40" customHeight="1" s="19">
+      <c r="A9" s="74" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="74" t="inlineStr">
         <is>
           <t>Verify card number is required error message</t>
         </is>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C9" s="74" t="inlineStr">
         <is>
           <t>verify</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
+      <c r="D9" s="74" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="E9" s="6" t="inlineStr">
+      <c r="E9" s="74" t="inlineStr">
         <is>
           <t>//*[@text='Card number must be 16 digits']</t>
         </is>
       </c>
-      <c r="F9" s="3" t="n"/>
-      <c r="G9" s="40" t="inlineStr">
+      <c r="F9" s="74" t="inlineStr"/>
+      <c r="G9" s="74" t="inlineStr"/>
+      <c r="H9" s="74" t="inlineStr"/>
+      <c r="I9" s="77" t="inlineStr">
         <is>
           <t>PASSED</t>
         </is>
       </c>
-      <c r="H9" s="3" t="inlineStr">
+      <c r="J9" s="74" t="inlineStr">
         <is>
           <t>Verification successful: Element found as expected</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="25" customHeight="1" s="19">
-      <c r="A10" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3" t="inlineStr">
+    <row r="10" ht="40" customHeight="1" s="19">
+      <c r="A10" s="74" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="74" t="inlineStr">
         <is>
           <t>Verify cardholder name is required error message</t>
         </is>
       </c>
-      <c r="C10" s="3" t="inlineStr">
+      <c r="C10" s="74" t="inlineStr">
         <is>
           <t>verify</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
+      <c r="D10" s="74" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="E10" s="6" t="inlineStr">
+      <c r="E10" s="74" t="inlineStr">
         <is>
           <t>//*[@text='Cardholder name is required']</t>
         </is>
       </c>
-      <c r="F10" s="3" t="n"/>
-      <c r="G10" s="40" t="inlineStr">
+      <c r="F10" s="74" t="inlineStr"/>
+      <c r="G10" s="74" t="inlineStr"/>
+      <c r="H10" s="74" t="inlineStr"/>
+      <c r="I10" s="77" t="inlineStr">
         <is>
           <t>PASSED</t>
         </is>
       </c>
-      <c r="H10" s="3" t="inlineStr">
+      <c r="J10" s="74" t="inlineStr">
         <is>
           <t>Verification successful: Element found as expected</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="25" customHeight="1" s="19">
-      <c r="A11" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
+    <row r="11" ht="40" customHeight="1" s="19">
+      <c r="A11" s="74" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="74" t="inlineStr">
         <is>
           <t>Verify expiry month is required error message</t>
         </is>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C11" s="74" t="inlineStr">
         <is>
           <t>verify</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
+      <c r="D11" s="74" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="E11" s="6" t="inlineStr">
+      <c r="E11" s="74" t="inlineStr">
         <is>
           <t>//*[@text='Invalid expiry month (01-12)']</t>
         </is>
       </c>
-      <c r="F11" s="3" t="n"/>
-      <c r="G11" s="40" t="inlineStr">
+      <c r="F11" s="74" t="inlineStr"/>
+      <c r="G11" s="74" t="inlineStr"/>
+      <c r="H11" s="74" t="inlineStr"/>
+      <c r="I11" s="77" t="inlineStr">
         <is>
           <t>PASSED</t>
         </is>
       </c>
-      <c r="H11" s="3" t="inlineStr">
+      <c r="J11" s="74" t="inlineStr">
         <is>
           <t>Verification successful: Element found as expected</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="25" customHeight="1" s="19">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
+    <row r="12" ht="40" customHeight="1" s="19">
+      <c r="A12" s="74" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="74" t="inlineStr">
         <is>
           <t>Verify CVV is required error message</t>
         </is>
       </c>
-      <c r="C12" s="3" t="inlineStr">
+      <c r="C12" s="74" t="inlineStr">
         <is>
           <t>verify</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr">
+      <c r="D12" s="74" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="E12" s="3" t="inlineStr">
+      <c r="E12" s="74" t="inlineStr">
         <is>
           <t>//*[@text='CVV must be 3 or 4 digits']</t>
         </is>
       </c>
-      <c r="F12" s="3" t="n"/>
-      <c r="G12" s="40" t="inlineStr">
+      <c r="F12" s="74" t="inlineStr"/>
+      <c r="G12" s="74" t="inlineStr"/>
+      <c r="H12" s="74" t="inlineStr"/>
+      <c r="I12" s="77" t="inlineStr">
         <is>
           <t>PASSED</t>
         </is>
       </c>
-      <c r="H12" s="3" t="inlineStr">
+      <c r="J12" s="74" t="inlineStr">
         <is>
           <t>Verification successful: Element found as expected</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="25" customHeight="1" s="19">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
+    <row r="13" ht="40" customHeight="1" s="19">
+      <c r="A13" s="74" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="74" t="inlineStr">
         <is>
           <t>Verify zip code is required error message</t>
         </is>
       </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="C13" s="74" t="inlineStr">
         <is>
           <t>verify</t>
         </is>
       </c>
-      <c r="D13" s="3" t="inlineStr">
+      <c r="D13" s="74" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="E13" s="6" t="inlineStr">
+      <c r="E13" s="74" t="inlineStr">
         <is>
           <t>//*[@text='ZIP code must be 5 digits']</t>
         </is>
       </c>
-      <c r="F13" s="3" t="n"/>
-      <c r="G13" s="40" t="inlineStr">
+      <c r="F13" s="74" t="inlineStr"/>
+      <c r="G13" s="74" t="inlineStr"/>
+      <c r="H13" s="74" t="inlineStr"/>
+      <c r="I13" s="77" t="inlineStr">
         <is>
           <t>PASSED</t>
         </is>
       </c>
-      <c r="H13" s="3" t="inlineStr">
+      <c r="J13" s="74" t="inlineStr">
         <is>
           <t>Verification successful: Element found as expected</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="25" customHeight="1" s="19">
-      <c r="A14" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
+    <row r="14" ht="40" customHeight="1" s="19">
+      <c r="A14" s="74" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="74" t="inlineStr">
         <is>
           <t>Enter card number</t>
         </is>
       </c>
-      <c r="C14" s="7" t="inlineStr">
+      <c r="C14" s="74" t="inlineStr">
         <is>
           <t>input</t>
         </is>
       </c>
-      <c r="D14" s="7" t="inlineStr">
+      <c r="D14" s="74" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="E14" s="7" t="inlineStr">
+      <c r="E14" s="74" t="inlineStr">
         <is>
           <t>//android.widget.EditText[@displayed='true'][2]</t>
         </is>
       </c>
-      <c r="F14" s="7" t="inlineStr">
+      <c r="F14" s="74" t="inlineStr"/>
+      <c r="G14" s="74" t="inlineStr"/>
+      <c r="H14" s="74" t="inlineStr">
         <is>
           <t>4111111111111111</t>
         </is>
       </c>
-      <c r="G14" s="40" t="inlineStr">
+      <c r="I14" s="77" t="inlineStr">
         <is>
           <t>PASSED</t>
         </is>
       </c>
-      <c r="H14" s="5" t="inlineStr">
+      <c r="J14" s="74" t="inlineStr">
         <is>
           <t>Successfully entered text: '4111111111111111'</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="25" customHeight="1" s="19">
-      <c r="A15" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" s="7" t="inlineStr">
+    <row r="15" ht="40" customHeight="1" s="19">
+      <c r="A15" s="74" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="74" t="inlineStr">
         <is>
           <t>Enter cardholder name</t>
         </is>
       </c>
-      <c r="C15" s="7" t="inlineStr">
+      <c r="C15" s="74" t="inlineStr">
         <is>
           <t>input</t>
         </is>
       </c>
-      <c r="D15" s="7" t="inlineStr">
+      <c r="D15" s="74" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="E15" s="7" t="inlineStr">
+      <c r="E15" s="74" t="inlineStr">
         <is>
           <t>//android.widget.EditText[@displayed='true'][3]</t>
         </is>
       </c>
-      <c r="F15" s="7" t="inlineStr">
+      <c r="F15" s="74" t="inlineStr"/>
+      <c r="G15" s="74" t="inlineStr"/>
+      <c r="H15" s="74" t="inlineStr">
         <is>
           <t>John Doe</t>
         </is>
       </c>
-      <c r="G15" s="40" t="inlineStr">
+      <c r="I15" s="77" t="inlineStr">
         <is>
           <t>PASSED</t>
         </is>
       </c>
-      <c r="H15" s="5" t="inlineStr">
+      <c r="J15" s="74" t="inlineStr">
         <is>
           <t>Successfully entered text: 'John Doe'</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="25" customHeight="1" s="19">
-      <c r="A16" s="4" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" s="7" t="inlineStr">
+    <row r="16" ht="40" customHeight="1" s="19">
+      <c r="A16" s="74" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="74" t="inlineStr">
         <is>
           <t>Enter expiration month</t>
         </is>
       </c>
-      <c r="C16" s="7" t="inlineStr">
+      <c r="C16" s="74" t="inlineStr">
         <is>
           <t>input</t>
         </is>
       </c>
-      <c r="D16" s="7" t="inlineStr">
+      <c r="D16" s="74" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="E16" s="7" t="inlineStr">
+      <c r="E16" s="74" t="inlineStr">
         <is>
           <t>//android.widget.EditText[@displayed='true'][4]</t>
         </is>
       </c>
-      <c r="F16" s="7" t="inlineStr">
+      <c r="F16" s="74" t="inlineStr"/>
+      <c r="G16" s="74" t="inlineStr"/>
+      <c r="H16" s="74" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="G16" s="40" t="inlineStr">
+      <c r="I16" s="77" t="inlineStr">
         <is>
           <t>PASSED</t>
         </is>
       </c>
-      <c r="H16" s="5" t="inlineStr">
+      <c r="J16" s="74" t="inlineStr">
         <is>
           <t>Successfully entered text: '12'</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="25" customHeight="1" s="19">
-      <c r="A17" s="4" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" s="7" t="inlineStr">
+    <row r="17" ht="40" customHeight="1" s="19">
+      <c r="A17" s="74" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="74" t="inlineStr">
         <is>
           <t>Enter expiration year</t>
         </is>
       </c>
-      <c r="C17" s="7" t="inlineStr">
+      <c r="C17" s="74" t="inlineStr">
         <is>
           <t>input</t>
         </is>
       </c>
-      <c r="D17" s="7" t="inlineStr">
+      <c r="D17" s="74" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="E17" s="7" t="inlineStr">
+      <c r="E17" s="74" t="inlineStr">
         <is>
           <t>//android.widget.EditText[@displayed='true'][5]</t>
         </is>
       </c>
-      <c r="F17" s="7" t="inlineStr">
+      <c r="F17" s="74" t="inlineStr"/>
+      <c r="G17" s="74" t="inlineStr"/>
+      <c r="H17" s="74" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="G17" s="40" t="inlineStr">
+      <c r="I17" s="77" t="inlineStr">
         <is>
           <t>PASSED</t>
         </is>
       </c>
-      <c r="H17" s="5" t="inlineStr">
+      <c r="J17" s="74" t="inlineStr">
         <is>
           <t>Successfully entered text: '25'</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="25" customHeight="1" s="19">
-      <c r="A18" s="4" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" s="7" t="inlineStr">
+    <row r="18" ht="40" customHeight="1" s="19">
+      <c r="A18" s="74" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="74" t="inlineStr">
         <is>
           <t>Enter CVV code</t>
         </is>
       </c>
-      <c r="C18" s="7" t="inlineStr">
+      <c r="C18" s="74" t="inlineStr">
         <is>
           <t>input</t>
         </is>
       </c>
-      <c r="D18" s="7" t="inlineStr">
+      <c r="D18" s="74" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="E18" s="7" t="inlineStr">
+      <c r="E18" s="74" t="inlineStr">
         <is>
           <t>//android.widget.EditText[@displayed='true'][6]</t>
         </is>
       </c>
-      <c r="F18" s="7" t="inlineStr">
+      <c r="F18" s="74" t="inlineStr"/>
+      <c r="G18" s="74" t="inlineStr"/>
+      <c r="H18" s="74" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="G18" s="40" t="inlineStr">
+      <c r="I18" s="77" t="inlineStr">
         <is>
           <t>PASSED</t>
         </is>
       </c>
-      <c r="H18" s="5" t="inlineStr">
+      <c r="J18" s="74" t="inlineStr">
         <is>
           <t>Successfully entered text: '123'</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="25" customHeight="1" s="19">
-      <c r="A19" s="4" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" s="7" t="inlineStr">
+    <row r="19" ht="40" customHeight="1" s="19">
+      <c r="A19" s="74" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="74" t="inlineStr">
         <is>
           <t>Enter billing zip code</t>
         </is>
       </c>
-      <c r="C19" s="7" t="inlineStr">
+      <c r="C19" s="74" t="inlineStr">
         <is>
           <t>input</t>
         </is>
       </c>
-      <c r="D19" s="7" t="inlineStr">
+      <c r="D19" s="74" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="E19" s="7" t="inlineStr">
+      <c r="E19" s="74" t="inlineStr">
         <is>
           <t>//android.widget.EditText[@displayed='true'][7]</t>
         </is>
       </c>
-      <c r="F19" s="7" t="inlineStr">
+      <c r="F19" s="74" t="inlineStr"/>
+      <c r="G19" s="74" t="inlineStr"/>
+      <c r="H19" s="74" t="inlineStr">
         <is>
           <t>12345</t>
         </is>
       </c>
-      <c r="G19" s="40" t="inlineStr">
+      <c r="I19" s="77" t="inlineStr">
         <is>
           <t>PASSED</t>
         </is>
       </c>
-      <c r="H19" s="5" t="inlineStr">
+      <c r="J19" s="74" t="inlineStr">
         <is>
           <t>Successfully entered text: '12345'</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="25" customHeight="1" s="19">
-      <c r="A20" s="4" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" s="7" t="inlineStr">
+    <row r="20" ht="40" customHeight="1" s="19">
+      <c r="A20" s="74" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="74" t="inlineStr">
         <is>
           <t>Click Submit Payment button</t>
         </is>
       </c>
-      <c r="C20" s="7" t="inlineStr">
+      <c r="C20" s="74" t="inlineStr">
         <is>
           <t>click</t>
         </is>
       </c>
-      <c r="D20" s="7" t="inlineStr">
+      <c r="D20" s="74" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="E20" s="7" t="inlineStr">
+      <c r="E20" s="74" t="inlineStr">
         <is>
           <t>//*[@text='Submit Payment']</t>
         </is>
       </c>
-      <c r="F20" s="7" t="n"/>
-      <c r="G20" s="40" t="inlineStr">
+      <c r="F20" s="74" t="inlineStr"/>
+      <c r="G20" s="74" t="inlineStr"/>
+      <c r="H20" s="74" t="inlineStr"/>
+      <c r="I20" s="77" t="inlineStr">
         <is>
           <t>PASSED</t>
         </is>
       </c>
-      <c r="H20" s="5" t="inlineStr">
+      <c r="J20" s="74" t="inlineStr">
         <is>
           <t>Successfully clicked element</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="25" customHeight="1" s="19">
-      <c r="A21" s="4" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" s="8" t="inlineStr">
+    <row r="21" ht="40" customHeight="1" s="19">
+      <c r="A21" s="74" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="74" t="inlineStr">
         <is>
           <t>Verify payment successful message</t>
         </is>
       </c>
-      <c r="C21" s="8" t="inlineStr">
+      <c r="C21" s="74" t="inlineStr">
         <is>
           <t>verify</t>
         </is>
       </c>
-      <c r="D21" s="8" t="inlineStr">
+      <c r="D21" s="74" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="E21" s="8" t="inlineStr">
+      <c r="E21" s="74" t="inlineStr">
         <is>
           <t>//*[contains(@text,'successful') or contains(@text,'Payment Complete') or contains(@text,'completed')]</t>
         </is>
       </c>
-      <c r="F21" s="8" t="n"/>
-      <c r="G21" s="40" t="inlineStr">
+      <c r="F21" s="74" t="inlineStr"/>
+      <c r="G21" s="74" t="inlineStr"/>
+      <c r="H21" s="74" t="inlineStr"/>
+      <c r="I21" s="77" t="inlineStr">
         <is>
           <t>PASSED</t>
         </is>
       </c>
-      <c r="H21" s="5" t="inlineStr">
+      <c r="J21" s="74" t="inlineStr">
         <is>
           <t>Verification successful: Element found as expected</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="25" customHeight="1" s="19">
-      <c r="A22" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" s="8" t="inlineStr">
+    <row r="22" ht="40" customHeight="1" s="19">
+      <c r="A22" s="74" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="74" t="inlineStr">
         <is>
           <t>Click OK button to dismiss success message</t>
         </is>
       </c>
-      <c r="C22" s="8" t="inlineStr">
+      <c r="C22" s="74" t="inlineStr">
         <is>
           <t>click</t>
         </is>
       </c>
-      <c r="D22" s="8" t="inlineStr">
+      <c r="D22" s="74" t="inlineStr">
         <is>
           <t>xpath</t>
         </is>
       </c>
-      <c r="E22" s="8" t="inlineStr">
+      <c r="E22" s="74" t="inlineStr">
         <is>
           <t>//*[@text='OK' or @text='Done' or @text='Continue']</t>
         </is>
       </c>
-      <c r="F22" s="8" t="n"/>
-      <c r="G22" s="40" t="inlineStr">
+      <c r="F22" s="74" t="inlineStr"/>
+      <c r="G22" s="74" t="inlineStr"/>
+      <c r="H22" s="74" t="inlineStr"/>
+      <c r="I22" s="77" t="inlineStr">
         <is>
           <t>PASSED</t>
         </is>
       </c>
-      <c r="H22" s="5" t="inlineStr">
+      <c r="J22" s="74" t="inlineStr">
         <is>
           <t>Successfully clicked element</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/tests/android/billing/Payment_Form_Validation_Test.xlsx
+++ b/tests/android/billing/Payment_Form_Validation_Test.xlsx
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B6" s="45" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-14</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B7" s="45" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>206</t>
         </is>
       </c>
     </row>
